--- a/biology/Médecine/Otto_Loewi/Otto_Loewi.xlsx
+++ b/biology/Médecine/Otto_Loewi/Otto_Loewi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Otto Loewi est un médecin autrichien de renom, né le 3 juin 1873 à Francfort-sur-le-Main en Allemagne, et mort le 25 décembre 1961 à New York. Il est surtout connu pour ses travaux sur la transmission des impulsions nerveuses, qui lui ont valu le prix Nobel de physiologie ou médecine en 1936.
 Loewi a étudié la médecine à l'Université de Strasbourg et a commencé sa carrière en tant que médecin généraliste en Autriche. En 1902, il est devenu assistant de recherche à l'Institut de physiologie de l'Université de Marburg en Allemagne, où il a travaillé avec le célèbre physiologiste Franz Hofmeister. En 1909, Loewi est retourné à Vienne, où il a travaillé comme professeur de pharmacologie à l'Université de Vienne jusqu'à son émigration en 1938.
@@ -516,7 +528,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>(en) From the workshop of discoveries, Lawrence, University of Kansas Press, 1953Texte intégral</t>
         </is>
